--- a/20200324 WO3196dev9/R_T/0327_1231_WO3196dev9_Tsteps5C_RvsT/0327_1231_WO3196dev9_Tsteps5C_correcterSource_fit.xlsx
+++ b/20200324 WO3196dev9/R_T/0327_1231_WO3196dev9_Tsteps5C_RvsT/0327_1231_WO3196dev9_Tsteps5C_correcterSource_fit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijk\Documents\MEP\MEP_control_software\20200324 WO3196dev9\R_T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijk\Documents\MEP\MEP_control_software\20200324 WO3196dev9\R_T\0327_1231_WO3196dev9_Tsteps5C_RvsT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4568A34C-A17A-4A93-8E47-BA93EED5A2EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F24444-F441-4562-A111-A4429251812F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="14856" xr2:uid="{AAB26118-4A42-404F-BBC3-5088C1397B7A}"/>
+    <workbookView xWindow="29700" yWindow="4188" windowWidth="17280" windowHeight="8988" xr2:uid="{AAB26118-4A42-404F-BBC3-5088C1397B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Coefficients and uncertainties</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>with Ea in eV, A in Ohms and T in Kelvin</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ea</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,10 +516,29 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>141.69399999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B11</f>
+        <v>141.69399999999999</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.31248399999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B12*1000</f>
+        <v>312.48399999999998</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
